--- a/00_設計/05_基本設計_機能一覧.xlsx
+++ b/00_設計/05_基本設計_機能一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapdo\myapp\202311_jukukuru\00_設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5300537C-1A05-49F4-86D6-967E94FC0CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1E48D5-AEDB-4DBB-A227-AEFE0042461B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,41 +417,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・対象生徒の受講日時
-例) "12/26" : {
-          [1, 2]
-       }
-       "12/27" : {
-          [4, 5]
-       }, ...</t>
-    <rPh sb="1" eb="5">
-      <t>タイショウセイト</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジュコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・スクール開放日時(json)
-例) "12/26" : {
-          [1, 2, 3, 4, 5]
-       }
-       "12/27" : {
-          [1, 2, 4, 5]
-       }, ...</t>
-    <rPh sb="5" eb="9">
-      <t>カイホウニチジ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>受講日参照ボタン押下</t>
     <rPh sb="0" eb="2">
       <t>ジュコウ</t>
@@ -703,6 +668,42 @@
     <rPh sb="9" eb="13">
       <t>ジュコウニチジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スクール開放日時(json)
+例)
+[
+ {
+   "id" : 1,
+   "date": 2023/12/26
+   "time": 1
+ },{
+   "id" : 1,
+   "date": 2023/12/26
+   "time": 2
+ }...
+]</t>
+    <rPh sb="5" eb="9">
+      <t>カイホウニチジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・対象生徒の受講日時
+例)
+[
+ {
+   "date": 2023/12/26
+   "times": [1,2]
+ },{
+   "date": 2023/12/27
+   "times": [1,2]
+ }...
+]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -735,7 +736,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,6 +746,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -788,6 +795,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1070,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1188,7 +1205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="126">
+    <row r="5" spans="1:8" ht="234">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1211,7 +1228,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="54">
@@ -1240,7 +1257,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="126">
+    <row r="7" spans="1:8" ht="198">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1263,59 +1280,59 @@
         <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="234">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="126">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="198">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="126">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>42</v>
+      <c r="H9" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="54">
@@ -1326,48 +1343,48 @@
         <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:8" s="8" customFormat="1" ht="198">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="126">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>42</v>
+      <c r="H11" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="36">
@@ -1378,19 +1395,19 @@
         <v>36</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>8</v>

--- a/00_設計/05_基本設計_機能一覧.xlsx
+++ b/00_設計/05_基本設計_機能一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapdo\myapp\202311_jukukuru\00_設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1E48D5-AEDB-4DBB-A227-AEFE0042461B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA83864D-135D-4B8A-8448-FF132325580A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,7 +736,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,6 +752,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -805,6 +811,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1088,7 +1101,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1205,55 +1218,55 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="234">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8" s="11" customFormat="1" ht="234">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="54">
-      <c r="A6" s="1">
+    <row r="6" spans="1:8" s="11" customFormat="1" ht="54">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="10" t="s">
         <v>33</v>
       </c>
     </row>

--- a/00_設計/05_基本設計_機能一覧.xlsx
+++ b/00_設計/05_基本設計_機能一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapdo\myapp\202311_jukukuru\00_設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA83864D-135D-4B8A-8448-FF132325580A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508D98F9-9550-4A66-BE18-37B8B175475C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -310,21 +310,6 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・生徒ID
-・来塾日
-・時間帯</t>
-    <rPh sb="1" eb="3">
-      <t>セイト</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ライジュクビ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ジカンタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -543,27 +528,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・生徒ID
-・変更前日時
-・変更後日時</t>
-    <rPh sb="1" eb="3">
-      <t>セイト</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ヘンコウマエ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ヘンコウゴ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・変更成功：0
 ・変更失敗：9</t>
     <rPh sb="1" eb="5">
@@ -653,20 +617,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・生徒ID
-・削除受講日時</t>
-    <rPh sb="1" eb="3">
-      <t>セイト</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ジュコウニチジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -693,17 +643,108 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>・スクール開放日時(json)
+例)
+[
+ {
+   "id" : 1,
+   "date": 2023/12/26
+   "time": 1
+ },{
+   "id" : 2,
+   "date": 2023/12/26
+   "time": 2
+ }...
+]</t>
+    <rPh sb="5" eb="9">
+      <t>カイホウニチジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・生徒ID
+・授業IDのリスト</t>
+    <rPh sb="1" eb="3">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>・対象生徒の受講日時
 例)
 [
  {
+　"id" : 1
    "date": 2023/12/26
-   "times": [1,2]
+   "times": 1
  },{
+　"id" : 6
    "date": 2023/12/27
-   "times": [1,2]
+   "times": 1,2
  }...
 ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・生徒ID
+・削除受講日時に紐づく
+　授業IDのリスト</t>
+    <rPh sb="1" eb="3">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ジュコウニチジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジュギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・生徒ID
+・変更前日時に紐づく
+　授業IDのリスト
+・変更後日時のリスト
+・変更後時間帯IDリスト</t>
+    <rPh sb="1" eb="3">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヘンコウマエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ヘンコウゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ヘンコウゴ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ジカンタイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -798,9 +839,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -818,6 +856,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1101,7 +1142,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1218,211 +1259,211 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="234">
-      <c r="A5" s="9">
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="234">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="10" customFormat="1" ht="36">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="10" customFormat="1" ht="234">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" ht="54">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="10" t="s">
+    <row r="8" spans="1:8" s="7" customFormat="1" ht="234">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="198">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1" ht="234">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" ht="234">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="198">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="54">
+    <row r="10" spans="1:8" ht="90">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="234">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" ht="198">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="10" customFormat="1" ht="54">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="E12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="G12" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="36">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="9" t="s">
         <v>8</v>
       </c>
     </row>

--- a/00_設計/05_基本設計_機能一覧.xlsx
+++ b/00_設計/05_基本設計_機能一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapdo\myapp\202311_jukukuru\00_設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508D98F9-9550-4A66-BE18-37B8B175475C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F770E16-45F5-45E3-B496-333CCA98A4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -617,28 +617,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・スクール開放日時(json)
-例)
-[
- {
-   "id" : 1,
-   "date": 2023/12/26
-   "time": 1
- },{
-   "id" : 1,
-   "date": 2023/12/26
-   "time": 2
- }...
-]</t>
-    <rPh sb="5" eb="9">
-      <t>カイホウニチジ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -716,8 +694,8 @@
     <t>・生徒ID
 ・変更前日時に紐づく
 　授業IDのリスト
-・変更後日時のリスト
-・変更後時間帯IDリスト</t>
+・変更後の
+　授業IDリスト</t>
     <rPh sb="1" eb="3">
       <t>セイト</t>
     </rPh>
@@ -736,14 +714,97 @@
     <rPh sb="28" eb="31">
       <t>ヘンコウゴ</t>
     </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>ヘンコウゴ</t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t>ジカンタイ</t>
+    <rPh sb="34" eb="36">
+      <t>ジュギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更候補日取得</t>
+    <rPh sb="0" eb="5">
+      <t>ヘンコウコウホビ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講日変更ボタン押下</t>
+    <rPh sb="0" eb="2">
+      <t>ジュコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBから対象生徒の授業変更候補日
+（スクール開放日と生徒来塾予定日の差分）
+を取得する。</t>
+    <rPh sb="4" eb="8">
+      <t>タイショウセイト</t>
+    </rPh>
+    <rPh sb="9" eb="16">
+      <t>ジュギョウヘンコウコウホビ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="28" eb="33">
+      <t>ライジュクヨテイビ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・生徒ID
+・スクール名</t>
+    <rPh sb="1" eb="3">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・変更候補日(json)
+例)
+[
+ {
+   "id" : 1,
+   "date": 2023/12/26
+   "time": 1
+ },{
+   "id" : 3,
+   "date": 2023/12/26
+   "time": 3
+ }...
+]</t>
+    <rPh sb="1" eb="6">
+      <t>ヘンコウコウホビ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1139,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1282,7 +1343,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="10" customFormat="1" ht="36">
@@ -1305,7 +1366,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>32</v>
@@ -1334,7 +1395,7 @@
         <v>40</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" ht="234">
@@ -1386,96 +1447,112 @@
         <v>40</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="10" customFormat="1" ht="234">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="10" customFormat="1" ht="90">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="7" customFormat="1" ht="234">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="10" customFormat="1" ht="54">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="90">
-      <c r="A10" s="1">
+      <c r="H13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="234">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="10" customFormat="1" ht="54">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1"/>
@@ -1637,6 +1714,16 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
